--- a/docentes/Avila Coronado Julieta Estadisticos 2020.xlsx
+++ b/docentes/Avila Coronado Julieta Estadisticos 2020.xlsx
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1101,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1170,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1193,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1216,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
